--- a/study-exception/doc/异常定义.xlsx
+++ b/study-exception/doc/异常定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2910" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异常码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +94,10 @@
   </si>
   <si>
     <t>对象未找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,12 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -459,20 +462,20 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
@@ -483,10 +486,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1">
         <v>1002</v>
       </c>
@@ -495,10 +498,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1">
         <v>1003</v>
       </c>
@@ -507,189 +510,154 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3">
+        <v>3002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3">
+        <v>3003</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3">
+        <v>3004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>2001</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1">
         <v>2002</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1">
         <v>2003</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C14" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1">
-        <v>3002</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1">
-        <v>3003</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1">
-        <v>3004</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
